--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psap-Gpr37.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psap-Gpr37.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>339.4154793333333</v>
+        <v>90.56466633333334</v>
       </c>
       <c r="H2">
-        <v>1018.246438</v>
+        <v>271.693999</v>
       </c>
       <c r="I2">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831797</v>
       </c>
       <c r="J2">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831796</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>5.051181163438667</v>
+        <v>1.347783364372667</v>
       </c>
       <c r="R2">
-        <v>45.460630470948</v>
+        <v>12.130050279354</v>
       </c>
       <c r="S2">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831797</v>
       </c>
       <c r="T2">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>730.9043280000001</v>
       </c>
       <c r="I3">
-        <v>0.3724731861573274</v>
+        <v>0.601197186834308</v>
       </c>
       <c r="J3">
-        <v>0.3724731861573274</v>
+        <v>0.6011971868343079</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>32.631954627888</v>
       </c>
       <c r="S3">
-        <v>0.3724731861573274</v>
+        <v>0.601197186834308</v>
       </c>
       <c r="T3">
-        <v>0.3724731861573274</v>
+        <v>0.6011971868343079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>213.149757</v>
       </c>
       <c r="I4">
-        <v>0.1086223819958692</v>
+        <v>0.1753239505825123</v>
       </c>
       <c r="J4">
-        <v>0.1086223819958692</v>
+        <v>0.1753239505825123</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,10 +694,10 @@
         <v>9.516284051022001</v>
       </c>
       <c r="S4">
-        <v>0.1086223819958692</v>
+        <v>0.1753239505825123</v>
       </c>
       <c r="T4">
-        <v>0.1086223819958692</v>
+        <v>0.1753239505825123</v>
       </c>
     </row>
   </sheetData>
